--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,10 +99,16 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>395058002</t>
-  </si>
-  <si>
-    <t>Procedure by intent (procedure)</t>
+    <t>119361006</t>
+  </si>
+  <si>
+    <t>Plasma specimen (specimen)</t>
+  </si>
+  <si>
+    <t>440500007</t>
+  </si>
+  <si>
+    <t>Dried blood spot specimen (specimen)</t>
   </si>
   <si>
     <t/>
@@ -378,7 +384,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,15 +415,23 @@
         <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>Dried blood spot specimen (specimen)</t>
+  </si>
+  <si>
+    <t>441620008</t>
+  </si>
+  <si>
+    <t>Oral fluid specimen (specimen)</t>
+  </si>
+  <si>
+    <t>258580003</t>
+  </si>
+  <si>
+    <t>Whole blood specimen (specimen)</t>
+  </si>
+  <si>
+    <t>119364003</t>
+  </si>
+  <si>
+    <t>Serum specimen (specimen)</t>
   </si>
   <si>
     <t/>
@@ -384,7 +402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,15 +441,39 @@
         <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Specimen type used in Viral Load testing</t>
+    <t>Specimen Type Used In Viral Load testing</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>A list of specimen types.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -372,27 +375,27 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +417,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -422,58 +425,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-specimen-type.xlsx
+++ b/branches/master/ValueSet-vs-specimen-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
